--- a/funcionCall.xlsx
+++ b/funcionCall.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
-  <si>
-    <t>coder.c</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>Weight_a</t>
   </si>
@@ -35,9 +32,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>File</t>
-  </si>
-  <si>
     <t>File define</t>
   </si>
   <si>
@@ -273,6 +267,15 @@
   </si>
   <si>
     <t>shr_r</t>
+  </si>
+  <si>
+    <t>typedef.h</t>
+  </si>
+  <si>
+    <t>L_negate</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -610,539 +613,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="B62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B67">
+    <sortCondition ref="B2:B67"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
